--- a/po_analysis_by_asin/B0CT3V77VQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CT3V77VQ_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>150</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>180</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>140</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>160</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>240</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>160</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>860</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>260</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>340</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>160</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>120</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>640</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>140</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>400</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>40</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>1020</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>420</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>580</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1620</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>900</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>1460</v>

--- a/po_analysis_by_asin/B0CT3V77VQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CT3V77VQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -719,6 +720,467 @@
       </c>
       <c r="B9" t="n">
         <v>1460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-280.4981091228272</v>
+      </c>
+      <c r="D2" t="n">
+        <v>295.6272535222927</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-261.1958962279971</v>
+      </c>
+      <c r="D3" t="n">
+        <v>347.0953657547917</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-244.5735020306613</v>
+      </c>
+      <c r="D4" t="n">
+        <v>344.8056707966517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-227.9853951552398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>350.2029401072188</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-211.2843385807399</v>
+      </c>
+      <c r="D6" t="n">
+        <v>383.2251803891768</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>116</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-170.4346474028097</v>
+      </c>
+      <c r="D7" t="n">
+        <v>410.2409334766294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-90.06837387502165</v>
+      </c>
+      <c r="D8" t="n">
+        <v>474.9778072740447</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>190</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-110.7649646978661</v>
+      </c>
+      <c r="D9" t="n">
+        <v>491.4439641461952</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>205</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-87.12769454779415</v>
+      </c>
+      <c r="D10" t="n">
+        <v>495.0539243433391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>220</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-86.63604773641067</v>
+      </c>
+      <c r="D11" t="n">
+        <v>507.3521872816119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-29.93449654897196</v>
+      </c>
+      <c r="D12" t="n">
+        <v>562.0750396380505</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>264</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-36.98410565983816</v>
+      </c>
+      <c r="D13" t="n">
+        <v>559.3246268896831</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>279</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-16.08290812674736</v>
+      </c>
+      <c r="D14" t="n">
+        <v>588.3512783364714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>294</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16.58942186022863</v>
+      </c>
+      <c r="D15" t="n">
+        <v>577.0881545248967</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>309</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.193969281394822</v>
+      </c>
+      <c r="D16" t="n">
+        <v>611.375039431551</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>324</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41.01762876759553</v>
+      </c>
+      <c r="D17" t="n">
+        <v>602.5226060141915</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>338</v>
+      </c>
+      <c r="C18" t="n">
+        <v>43.02017509121535</v>
+      </c>
+      <c r="D18" t="n">
+        <v>639.7209692330501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>368</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75.78186146241289</v>
+      </c>
+      <c r="D19" t="n">
+        <v>661.0641060109591</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>383</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.81900225029541</v>
+      </c>
+      <c r="D20" t="n">
+        <v>650.4609802593266</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>413</v>
+      </c>
+      <c r="C21" t="n">
+        <v>124.3769273006968</v>
+      </c>
+      <c r="D21" t="n">
+        <v>684.9509566188739</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>442</v>
+      </c>
+      <c r="C22" t="n">
+        <v>143.280570508692</v>
+      </c>
+      <c r="D22" t="n">
+        <v>738.4566374328001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>457</v>
+      </c>
+      <c r="C23" t="n">
+        <v>158.6722288363783</v>
+      </c>
+      <c r="D23" t="n">
+        <v>741.6519453142159</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>472</v>
+      </c>
+      <c r="C24" t="n">
+        <v>175.9518590366255</v>
+      </c>
+      <c r="D24" t="n">
+        <v>770.4005529176897</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>487</v>
+      </c>
+      <c r="C25" t="n">
+        <v>174.9648050485201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>773.4640816128531</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>502</v>
+      </c>
+      <c r="C26" t="n">
+        <v>202.5514680508194</v>
+      </c>
+      <c r="D26" t="n">
+        <v>803.0168578320114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>517</v>
+      </c>
+      <c r="C27" t="n">
+        <v>254.7627481512119</v>
+      </c>
+      <c r="D27" t="n">
+        <v>819.0173694571499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>532</v>
+      </c>
+      <c r="C28" t="n">
+        <v>250.8660705166789</v>
+      </c>
+      <c r="D28" t="n">
+        <v>825.1801164889337</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>546</v>
+      </c>
+      <c r="C29" t="n">
+        <v>223.2016811422715</v>
+      </c>
+      <c r="D29" t="n">
+        <v>833.0024030391738</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>561</v>
+      </c>
+      <c r="C30" t="n">
+        <v>291.0688376979289</v>
+      </c>
+      <c r="D30" t="n">
+        <v>853.9303504542465</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>576</v>
+      </c>
+      <c r="C31" t="n">
+        <v>271.7105781600414</v>
+      </c>
+      <c r="D31" t="n">
+        <v>856.7170016310438</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CT3V77VQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CT3V77VQ_po_data.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,16 +752,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -770,12 +760,6 @@
       <c r="B2" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
-        <v>-280.4981091228272</v>
-      </c>
-      <c r="D2" t="n">
-        <v>295.6272535222927</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -784,12 +768,6 @@
       <c r="B3" t="n">
         <v>26</v>
       </c>
-      <c r="C3" t="n">
-        <v>-261.1958962279971</v>
-      </c>
-      <c r="D3" t="n">
-        <v>347.0953657547917</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,12 +776,6 @@
       <c r="B4" t="n">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>-244.5735020306613</v>
-      </c>
-      <c r="D4" t="n">
-        <v>344.8056707966517</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -812,12 +784,6 @@
       <c r="B5" t="n">
         <v>56</v>
       </c>
-      <c r="C5" t="n">
-        <v>-227.9853951552398</v>
-      </c>
-      <c r="D5" t="n">
-        <v>350.2029401072188</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -826,12 +792,6 @@
       <c r="B6" t="n">
         <v>71</v>
       </c>
-      <c r="C6" t="n">
-        <v>-211.2843385807399</v>
-      </c>
-      <c r="D6" t="n">
-        <v>383.2251803891768</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -840,12 +800,6 @@
       <c r="B7" t="n">
         <v>116</v>
       </c>
-      <c r="C7" t="n">
-        <v>-170.4346474028097</v>
-      </c>
-      <c r="D7" t="n">
-        <v>410.2409334766294</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,12 +808,6 @@
       <c r="B8" t="n">
         <v>175</v>
       </c>
-      <c r="C8" t="n">
-        <v>-90.06837387502165</v>
-      </c>
-      <c r="D8" t="n">
-        <v>474.9778072740447</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -868,12 +816,6 @@
       <c r="B9" t="n">
         <v>190</v>
       </c>
-      <c r="C9" t="n">
-        <v>-110.7649646978661</v>
-      </c>
-      <c r="D9" t="n">
-        <v>491.4439641461952</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -882,12 +824,6 @@
       <c r="B10" t="n">
         <v>205</v>
       </c>
-      <c r="C10" t="n">
-        <v>-87.12769454779415</v>
-      </c>
-      <c r="D10" t="n">
-        <v>495.0539243433391</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -896,12 +832,6 @@
       <c r="B11" t="n">
         <v>220</v>
       </c>
-      <c r="C11" t="n">
-        <v>-86.63604773641067</v>
-      </c>
-      <c r="D11" t="n">
-        <v>507.3521872816119</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -910,12 +840,6 @@
       <c r="B12" t="n">
         <v>249</v>
       </c>
-      <c r="C12" t="n">
-        <v>-29.93449654897196</v>
-      </c>
-      <c r="D12" t="n">
-        <v>562.0750396380505</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -924,12 +848,6 @@
       <c r="B13" t="n">
         <v>264</v>
       </c>
-      <c r="C13" t="n">
-        <v>-36.98410565983816</v>
-      </c>
-      <c r="D13" t="n">
-        <v>559.3246268896831</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -938,12 +856,6 @@
       <c r="B14" t="n">
         <v>279</v>
       </c>
-      <c r="C14" t="n">
-        <v>-16.08290812674736</v>
-      </c>
-      <c r="D14" t="n">
-        <v>588.3512783364714</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -952,12 +864,6 @@
       <c r="B15" t="n">
         <v>294</v>
       </c>
-      <c r="C15" t="n">
-        <v>16.58942186022863</v>
-      </c>
-      <c r="D15" t="n">
-        <v>577.0881545248967</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -966,12 +872,6 @@
       <c r="B16" t="n">
         <v>309</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.193969281394822</v>
-      </c>
-      <c r="D16" t="n">
-        <v>611.375039431551</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -980,12 +880,6 @@
       <c r="B17" t="n">
         <v>324</v>
       </c>
-      <c r="C17" t="n">
-        <v>41.01762876759553</v>
-      </c>
-      <c r="D17" t="n">
-        <v>602.5226060141915</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -994,12 +888,6 @@
       <c r="B18" t="n">
         <v>338</v>
       </c>
-      <c r="C18" t="n">
-        <v>43.02017509121535</v>
-      </c>
-      <c r="D18" t="n">
-        <v>639.7209692330501</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1008,12 +896,6 @@
       <c r="B19" t="n">
         <v>368</v>
       </c>
-      <c r="C19" t="n">
-        <v>75.78186146241289</v>
-      </c>
-      <c r="D19" t="n">
-        <v>661.0641060109591</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1022,12 +904,6 @@
       <c r="B20" t="n">
         <v>383</v>
       </c>
-      <c r="C20" t="n">
-        <v>84.81900225029541</v>
-      </c>
-      <c r="D20" t="n">
-        <v>650.4609802593266</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1036,12 +912,6 @@
       <c r="B21" t="n">
         <v>413</v>
       </c>
-      <c r="C21" t="n">
-        <v>124.3769273006968</v>
-      </c>
-      <c r="D21" t="n">
-        <v>684.9509566188739</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1050,12 +920,6 @@
       <c r="B22" t="n">
         <v>442</v>
       </c>
-      <c r="C22" t="n">
-        <v>143.280570508692</v>
-      </c>
-      <c r="D22" t="n">
-        <v>738.4566374328001</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1064,12 +928,6 @@
       <c r="B23" t="n">
         <v>457</v>
       </c>
-      <c r="C23" t="n">
-        <v>158.6722288363783</v>
-      </c>
-      <c r="D23" t="n">
-        <v>741.6519453142159</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1078,12 +936,6 @@
       <c r="B24" t="n">
         <v>472</v>
       </c>
-      <c r="C24" t="n">
-        <v>175.9518590366255</v>
-      </c>
-      <c r="D24" t="n">
-        <v>770.4005529176897</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1092,12 +944,6 @@
       <c r="B25" t="n">
         <v>487</v>
       </c>
-      <c r="C25" t="n">
-        <v>174.9648050485201</v>
-      </c>
-      <c r="D25" t="n">
-        <v>773.4640816128531</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1106,12 +952,6 @@
       <c r="B26" t="n">
         <v>502</v>
       </c>
-      <c r="C26" t="n">
-        <v>202.5514680508194</v>
-      </c>
-      <c r="D26" t="n">
-        <v>803.0168578320114</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1120,12 +960,6 @@
       <c r="B27" t="n">
         <v>517</v>
       </c>
-      <c r="C27" t="n">
-        <v>254.7627481512119</v>
-      </c>
-      <c r="D27" t="n">
-        <v>819.0173694571499</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1134,12 +968,6 @@
       <c r="B28" t="n">
         <v>532</v>
       </c>
-      <c r="C28" t="n">
-        <v>250.8660705166789</v>
-      </c>
-      <c r="D28" t="n">
-        <v>825.1801164889337</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1148,12 +976,6 @@
       <c r="B29" t="n">
         <v>546</v>
       </c>
-      <c r="C29" t="n">
-        <v>223.2016811422715</v>
-      </c>
-      <c r="D29" t="n">
-        <v>833.0024030391738</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1162,12 +984,6 @@
       <c r="B30" t="n">
         <v>561</v>
       </c>
-      <c r="C30" t="n">
-        <v>291.0688376979289</v>
-      </c>
-      <c r="D30" t="n">
-        <v>853.9303504542465</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1175,12 +991,6 @@
       </c>
       <c r="B31" t="n">
         <v>576</v>
-      </c>
-      <c r="C31" t="n">
-        <v>271.7105781600414</v>
-      </c>
-      <c r="D31" t="n">
-        <v>856.7170016310438</v>
       </c>
     </row>
   </sheetData>
